--- a/excel/input.xlsx
+++ b/excel/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ev-gen\Documents\TEHNODAYS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38255F5-D19E-4029-A13A-9DF68658D7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB4B35F-7D63-466A-9572-57D3EFB9BB20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>value</t>
   </si>
@@ -93,10 +93,76 @@
     <t>cyber_zone</t>
   </si>
   <si>
-    <t>Иван</t>
+    <t>Иванов 1</t>
   </si>
   <si>
-    <t>Иванов</t>
+    <t>Иванов 2</t>
+  </si>
+  <si>
+    <t>Иванов 3</t>
+  </si>
+  <si>
+    <t>Иванов 4</t>
+  </si>
+  <si>
+    <t>Иванов 5</t>
+  </si>
+  <si>
+    <t>Иванов 6</t>
+  </si>
+  <si>
+    <t>Иванов 7</t>
+  </si>
+  <si>
+    <t>Иванов 8</t>
+  </si>
+  <si>
+    <t>Иванов 9</t>
+  </si>
+  <si>
+    <t>Иванов 10</t>
+  </si>
+  <si>
+    <t>Иванов 11</t>
+  </si>
+  <si>
+    <t>Иванов 12</t>
+  </si>
+  <si>
+    <t>Иван 1</t>
+  </si>
+  <si>
+    <t>Иван 2</t>
+  </si>
+  <si>
+    <t>Иван 3</t>
+  </si>
+  <si>
+    <t>Иван 4</t>
+  </si>
+  <si>
+    <t>Иван 5</t>
+  </si>
+  <si>
+    <t>Иван 6</t>
+  </si>
+  <si>
+    <t>Иван 7</t>
+  </si>
+  <si>
+    <t>Иван 8</t>
+  </si>
+  <si>
+    <t>Иван 9</t>
+  </si>
+  <si>
+    <t>Иван 10</t>
+  </si>
+  <si>
+    <t>Иван 11</t>
+  </si>
+  <si>
+    <t>Иван 12</t>
   </si>
 </sst>
 </file>
@@ -181,10 +247,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -408,7 +474,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -482,10 +548,10 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <v>623</v>
@@ -493,35 +559,35 @@
       <c r="D2" s="4">
         <v>500</v>
       </c>
-      <c r="E2" s="7">
-        <v>0.33333333333333331</v>
+      <c r="E2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="F2" s="7">
-        <v>2.0833333333333332E-2</v>
+      <c r="F2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="G2" s="7">
-        <v>0.33333333333333331</v>
+      <c r="G2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>2000</v>
       </c>
-      <c r="I2" s="7">
-        <v>0.10416666666666667</v>
+      <c r="I2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="J2" s="7">
-        <v>0.10416666666666667</v>
+      <c r="J2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="K2" s="7">
-        <v>0.10416666666666667</v>
+      <c r="K2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="L2" s="7">
-        <v>0.10416666666666667</v>
+      <c r="L2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="M2" s="7">
-        <v>0.10416666666666667</v>
+      <c r="M2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
-      <c r="N2" s="7">
-        <v>0.10416666666666667</v>
+      <c r="N2" s="8">
+        <v>9.2592592592592585E-4</v>
       </c>
       <c r="O2" s="4">
         <v>444</v>
@@ -543,23 +609,57 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4">
+        <v>400</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="J3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="K3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="L3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="M3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="N3" s="8">
+        <v>9.2592592592592585E-4</v>
+      </c>
+      <c r="O3" s="4">
+        <v>444</v>
+      </c>
+      <c r="P3" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>600</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -571,23 +671,57 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4">
+        <v>321</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N4" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O4" s="4">
+        <v>444</v>
+      </c>
+      <c r="P4" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>600</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -599,23 +733,57 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>234</v>
+      </c>
+      <c r="D5" s="4">
+        <v>510</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N5" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O5" s="4">
+        <v>444</v>
+      </c>
+      <c r="P5" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>600</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -627,23 +795,57 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>345</v>
+      </c>
+      <c r="D6" s="4">
+        <v>511</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N6" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>444</v>
+      </c>
+      <c r="P6" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>600</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -655,23 +857,57 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>456</v>
+      </c>
+      <c r="D7" s="4">
+        <v>51</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N7" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O7" s="4">
+        <v>444</v>
+      </c>
+      <c r="P7" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>600</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -683,23 +919,57 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>567</v>
+      </c>
+      <c r="D8" s="4">
+        <v>65</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O8" s="4">
+        <v>444</v>
+      </c>
+      <c r="P8" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>600</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -711,23 +981,57 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4">
+        <v>678</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5115</v>
+      </c>
+      <c r="E9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N9" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O9" s="4">
+        <v>444</v>
+      </c>
+      <c r="P9" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>600</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -739,23 +1043,57 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>789</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1561</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N10" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O10" s="4">
+        <v>444</v>
+      </c>
+      <c r="P10" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>600</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -767,23 +1105,57 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4">
+        <v>890</v>
+      </c>
+      <c r="D11" s="4">
+        <v>516</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N11" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O11" s="4">
+        <v>444</v>
+      </c>
+      <c r="P11" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>600</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -795,23 +1167,57 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4">
+        <v>789</v>
+      </c>
+      <c r="D12" s="4">
+        <v>515</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O12" s="4">
+        <v>444</v>
+      </c>
+      <c r="P12" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>600</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -823,23 +1229,57 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4">
+        <v>776</v>
+      </c>
+      <c r="D13" s="4">
+        <v>516</v>
+      </c>
+      <c r="E13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="K13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="M13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N13" s="8">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="O13" s="4">
+        <v>444</v>
+      </c>
+      <c r="P13" s="4">
+        <v>555</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>600</v>
+      </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -28461,6 +28901,7 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
